--- a/data/BUS_type.xlsx
+++ b/data/BUS_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUMO\RUIXIAO\newChattanooganet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielgui/Desktop/Research/untitled folder/transit-simulator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50531B7-3481-4697-A3CC-138F2773A35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E2C9C-A12C-884B-B384-BC7839F88855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9010" yWindow="1040" windowWidth="12190" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17340" yWindow="2340" windowWidth="12200" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,47 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Accel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>maxSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BusID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accel</t>
+  </si>
+  <si>
+    <t>decel</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>personCapacity</t>
+  </si>
+  <si>
+    <t>Gillig_101</t>
+  </si>
+  <si>
+    <t>Gillig_102</t>
+  </si>
+  <si>
+    <t>Gillig_103</t>
+  </si>
+  <si>
+    <t>Gillig_104</t>
+  </si>
+  <si>
+    <t>Gillig_105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,34 +387,34 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>101</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -421,9 +432,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>102</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1.3</v>
@@ -441,9 +452,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>103</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1.2</v>
@@ -461,9 +472,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>104</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.1000000000000001</v>
@@ -481,9 +492,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>105</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1.4</v>
